--- a/out/sample_out.xlsx
+++ b/out/sample_out.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Outputs listed in DSMB Charter Appedix A</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Outputs listed in DSMB Charter Appedix A</t>
+          <t>Safety Tables</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Safety Tables</t>
+          <t>Progression-free survival (PFS) (as applicable)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Progression-free survival (PFS) (as applicable)</t>
+          <t>Overall survival (OS) (as applicable)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Overall survival (OS) (as applicable)</t>
+          <t>Cellular pharmacokinetics (PK) concentrations (if data available)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cellular pharmacokinetics (PK) concentrations (if data available)</t>
+          <t>Efficacy Listing</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -522,7 +522,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Efficacy Listing</t>
+          <t>Tumor response</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -535,7 +535,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tumor response</t>
+          <t>Efficacy Figures</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -548,7 +548,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Efficacy Figures</t>
+          <t>Progression Free Survival (as applicable)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -561,362 +561,366 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Progression Free Survival (as applicable)</t>
+          <t>Overall Survival (as applicable)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kaplan-Meier Curve of Duration of Resp IMWG Criteria-Investigator Assessment Population, FDA Censoring Rules, Resp</t>
+          <t>Kaplan-Meier Curve of Duration of Resp IMWG Criteria-Investigator Assessmen Population, FDA Censoring Rules, Resp</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Overall Survival (as applicable)</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Safety Tables</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Outputs in tDSMB Table #</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>uts in the latest MM-001 DSMB Deliverables</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Outputs listed in DSMB Charter Appedix A</t>
+          <t>Demographics</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Outputs in tDSMB Table #</t>
+          <t>Table 14.1.6.2 Table 14.1.3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>uts in the latest MM-001 DSMB Deliverables</t>
+          <t>DSMB Table Title</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Safety Tables</t>
+          <t>Outputs listed in DSMB Charter Appedix A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Table 14.1.6.2 Table 14.1.3</t>
+          <t>Table 14.1.7.2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DSMB Table Title</t>
+          <t>Demographics and Baseline Characteristics-bb2121-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>Subject Disposition</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Table 14.1.7.2</t>
+          <t>Table 14.1.9.1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Demographics and Baseline Characteristics-bb2121-</t>
+          <t>treated Population</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Baseline Disease Characteristics</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Table 14.1.10.1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Subject Disposition</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Table 14.1.9.1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>treated Population</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Baseline Disease Characteristics</t>
+          <t>Multiple Myeloma Treatment History</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Table 14.1.10.1</t>
+          <t>Table 14.1.10.2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Subject Disposition</t>
+          <t>Baseline Disease Characteristics-bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Multiple Myeloma Treatment History</t>
+          <t>Briding therapy by Drug Class</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Table 14.1.10.2</t>
+          <t>Table 14.3.1.1.1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Baseline Disease Characteristics - bb2121-treated Population</t>
+          <t>Prior Anti-Myeloma Therapies by Class - bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Briding therapy by Drug Class</t>
+          <t>Exposure to Study Treatment (Including Lymphodepleting</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Table 14.3.1.1.1</t>
+          <t>Table 14.3.1.2.2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Prior Anti-Myeloma Therapies by Class-bb2121-treated Population</t>
+          <t>Anti-Myeloma Bridging Therapies by Class-bb2121- treated Population</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Exposure to Study Treatment (Including Lymphodepleting</t>
+          <t>chemotherapy) conoam</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Table 14.3.1.2.2</t>
+          <t>Table 14.3.1.3/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Anti-Myeloma Bridging Therapies by Class-bb2121- treated Population</t>
+          <t>Duration of Anti-myeloma Bridging Therapies -bb2121- treated Population</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>chemotherapy) conoam</t>
+          <t>Concomitant Medications</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Table 14.3.1.3.2</t>
+          <t>Table 14.3.2.1.1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Duration of Anti-myeloma Bridging Therapies - bb2121- treated Population</t>
+          <t>bb2121 Administration -bb2121-treated Population Lymphodepleting Chemotherapy (LD Chemo) Administration -bb2121-treated Population Lymphodepleting Chemotherapy (LD Chemo) Dose Adjustment-bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Concomitant Medications</t>
+          <t>Treatment-Emergent Adverse Events by System Organ Class (Preferred Term (PT)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Table 14.3.2.1.1</t>
+          <t>nd Table 14.3.2.2.1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>bb2121 Administration -bb2121-treated Population Lymphodepleting Chemotherapy (LD Chemo) Administration - bb2121-treated Population Lymphodepleting Chemotherapy (LD Chemo) Dose Adjustment - bb2121-treated Population</t>
+          <t>Adverse Events (AEs) Summary - bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Treatment-Emergent Adverse Events by System Organ Class (Preferred Term (PT)</t>
+          <t>Treatment-Emergent Grade 3 or Higher Adverse Events RelatDrug by SOC (as applicable)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nd Table 14.3.2.2.1</t>
+          <t>Table 14.3.2.2.2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Adverse Events (AEs) Summary - bb2121-treated Population</t>
+          <t>Adverse Events (AEs) by System Organ Class and Preferred Term Enrolled Population</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Treatment-Emergent Grade 3 or Higher Adverse Events RelatDrug by SOC (as applicable)</t>
+          <t>Treatment-Emergent Grade 3 or Higher Adverse Events by STreatment-Emergent Serious Adverse Events by SOC and PT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Table 14.3.2.2.2</t>
+          <t>tudy PT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Adverse Events (AEs) by System Organ Class and Preferred Term Enrolled Population</t>
+          <t>Adverse Events (AEs) by System Organ Class and Preferred Term bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Treatment-Emergent Grade 3 or Higher Adverse Events by STreatment-Emergent Serious Adverse Events by SOC and PT</t>
+          <t>Treatment-Emergent Adverse Events Related to Study Drug PT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tudy PT</t>
+          <t>Table 14.3.2.3.1.1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Grade 3/4 Adverse Events (AEs) by System Organ Class and Preferred Term-bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Treatment-Emergent Adverse Events Related to Study Drug PT</t>
+          <t>Treatment-Emergent Serious Adverse Events Related to StudSOC and PT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Table 14.3.2.3.1.1</t>
+          <t>Table 14.3.2.4.1.1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Adverse Events (AEs) by System Organ Class and Preferred Term bb2121-treated Population</t>
+          <t>Serious Adverse Events (SAEs) by System Organ Class and Preferred Term-bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Treatment-Emergent Serious Adverse Events Related to StudSOC and PT</t>
+          <t>Treatment-Emergent Adverse Events leading to Study Drug Discontinuation</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Table 14.3.2.4.1.1</t>
+          <t>and</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Adverse Events (AEs) Related to bb2121 by System Organ Class and Preferred Term-bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Treatment-Emergent Adverse Events leading to Study Drug Discontinuation</t>
+          <t>Treatment-Emergent Adverse Events of Special Interest</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>Table 14.3.2.5.3.1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Grade 3/4 Adverse Events (AEs) by System Organ Class and Preferred Term-bb2121-treated Population</t>
+          <t>Adverse Events of Special Interest (AESI) by AESI Category and Preferred Term -bb2121-treated Population Serious Adverse Events of Special Interest (AESI) by AESI Category and Preferred Term bb2121-treated Population.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Treatment-Emergent Adverse Events of Special Interest</t>
+          <t>Treatment-Emergent Grade 3 or Higher Adverse Events of SInterest</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Table 14.3.2.5.3.1</t>
+          <t>by Table 14.3.2.7.1.1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Serious Adverse Events (SAEs) by System Organ Class and Preferred Term-bb2121-treated Population</t>
+          <t>Adverse Events of Special Interest (AESI) Related to bb2121 by AESI Category and Preferred Term-bb2121- treated Population</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Treatment-Emergent Grade 3 or Higher Adverse Events of SInterest</t>
+          <t>Deaths</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>by Table 14.3.2.7.1.1</t>
+          <t>Table 14.3.2.7.2.1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Adverse Events (AEs) Related to bb2121 by System Organ Class and Preferred Term-bb2121-treated Population</t>
+          <t>Summary of Cytokine Release Syndrome - bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Deaths</t>
+          <t>Treatment-Emergent Adverse Events leading to death</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Table 14.3.2.7.2.1</t>
+          <t>Table 14.3.2.7.4.1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Adverse Events of Special Interest (AESI) by AESI Category and Preferred Term - bb2121-treated Population Serious Adverse Events of Special Interest (AESI) by AESI Category and Preferred Term bb2121-treated Population</t>
+          <t>Summary of Neurotoxicity-bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Treatment-Emergent Adverse Events leading to death</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Table 14.3.2.7.4.1</t>
+          <t>Table 14.3.2.8.1.1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -929,12 +933,12 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Table 14.3.2.8.1.1</t>
+          <t>Table 14.3.2.8.2.1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Adverse Events of Special Interest (AESI) Related to bb2121 by AESI Category and Preferred Term-bb2121- treated Population</t>
+          <t>Summary of Deaths and Causes - Enrolled Population</t>
         </is>
       </c>
     </row>
@@ -942,12 +946,12 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Table 14,3.2.8.2.1</t>
+          <t>Table 14.3.2.10.1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Summary of Cytokine Release Syndrome-bb2121-treated Population</t>
+          <t>Adverse Events (AES) Leading to Death by System Organ Class and Preferred Term-bb2121-treated Population Time to Neutropenia Recovery from Infusion for Subjects with Last Lab within Month 1 of bb2121 Infusion Date Indicating Grade 3/4 Neutropenia - bb2121-treated Population</t>
         </is>
       </c>
     </row>
@@ -955,442 +959,416 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Table 14.3.2.10.1</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Summary of Neurotoxicity - bb2121-treated Population Summary of Deaths and Causes - Enrolled Population</t>
-        </is>
-      </c>
+          <t>Table 14.3.2.9.1.1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Table 14.3,4,3.1.1.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Adverse Events (AEs) Leading to Death by System Organ Class and Preferred Term-bb2121-treated Population Time to Neutropenia Recovery from Infusion for Subjects with Last Lab within Month 1 of bb2121 Infusion Date Indicating Grade 3/4 Neutropenia - bb2121-treated Population</t>
-        </is>
-      </c>
+          <t>Table 14,3,4,3.1.1.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Table 14.3.2.9.1.1</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Outputs listed in DSMB Charter Appedix A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSMB Table #</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>tputs in the latest MM-001 DSMB Deliverables</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Outputs listed in DSMB Charter Appedix A</t>
+          <t>Safety Tables</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DSMB Table #</t>
+          <t>Outputs iTable 14.3.4.3.2.1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tputs in the latest MM-001 DSMB Deliverables</t>
+          <t>DSMB Table Title</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Safety Tables</t>
+          <t>bb2121 Drug Exposure and Comparator Drug Exposure (as appSafety Listings</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Outputs iTable 14.3.4.3.2.1</t>
+          <t>)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DSMB Table Title</t>
+          <t>Time to Thrombocytopenia Recovery from Infusion for Subjects with Last Lab within Month 1 of bb2121 Infusion Date Indicating Grade 3/4 Thrombocytopenia - bb2121- treated Population</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bb2121 Drug Exposure and Comparator Drug Exposure (as appSafety Listings</t>
+          <t>Subject Disposition</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>DSMB Listing #</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Time to Thrombocytopenia Recovery from Infusion for Subjects with Last Lab within Month 1 of bb2121 Infusion Date Indicating Grade 3/4 Thrombocytopenia - bb2121- treated Population</t>
+          <t>DSMB Listing Title</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Subject Disposition</t>
+          <t>Demographics</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DSMB Listing #</t>
+          <t>Listing 16.2.1.1.1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DSMB Listing Title</t>
+          <t>Screen Failures - Screened Population.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>Baseline Disease Characteristics</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Listing 16.2.1.1.1</t>
+          <t>Listing 16.2.1.2.1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Screen Fallures - Screened Population</t>
+          <t>Subject Disposition - bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Baseline Disease Characteristics</t>
+          <t>Concomitant medications</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Listing 16.2.1.2.1</t>
+          <t>Listing 16.2.4.8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Subject Disposition -bb2121-treated Population</t>
+          <t>Prior Bridging Therapies - bb2121-treated Population bb2121 Infusion Dosing Records - bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Concomitant medications</t>
+          <t>Adverse Events</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Listing 16.2.4.8</t>
+          <t>Listing 16.2.5.3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Prior Bridging Therapies - bb2121-treated Population bb2121 Infusion Dosing Records - bb2121-treated Population</t>
+          <t>Leukapheresis -bb2121-treated Population Prior and Concomitant Medication -bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Adverse Events</t>
+          <t>Grade 3 or Higher Adverse Events</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Listing 16.2.5.3</t>
+          <t>Listing 16.2.5.1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Leukapheresis -bb2121-treated Population Prior and Concomitant Medication - bb2121-treated Population</t>
+          <t>All Adverse Events-bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Grade 3 or Higher Adverse Events</t>
+          <t>Multiple Myeloma Treatment History</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Listing 16.2.5.1</t>
+          <t>Listing 16.2.4.6.1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>All Adverse Events - bb2121-treated Population</t>
+          <t>Serious Adverse Events - bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Multiple Myeloma Treatment History</t>
+          <t>Bridging Therapy by Drug Class</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Listing 16.2.4.6.1</t>
+          <t>Listing 16.2.7.1.1.2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Serious Adverse Events - bb2121-treated Population</t>
+          <t>Adverse Events of Special Interests-bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bridging Therapy by Drug Class</t>
+          <t>Exposure to Study Treatment (Including Lymphodepleting Chemotherapy)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Listing 16.2.7.1.1.2</t>
+          <t>Listing 16.2.7.1.2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Adverse Events of Special Interests-bb2121-treated Population</t>
+          <t>Death Enrolled Population</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Exposure to Study Treatment (Including Lymphodepleting Chemotherapy)</t>
+          <t>Serious Adverse Events</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Listing 16.2.7.1.2</t>
+          <t>Listing 16.2.7.2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Death Enrolled Population</t>
+          <t>Laboratory Results: Hematology -bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Serious Adverse Events</t>
+          <t>Adverse Events Related to Study Drug</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Listing 16.2.7.2</t>
+          <t>Listing 16.2.7.4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Laboratory Results: Chemistry - bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Adverse Events Related to Study Drug</t>
+          <t>Serious Adverse Events Related to Study Drug</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Listing 16.2.7.4</t>
+          <t>Listing 16.2.8.1.1.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Laboratory Results: Hematology-bb2121-treated Population</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Serious Adverse Events Related to Study Drug</t>
+          <t>Adverse Events of Special Interest</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Listing 16.2.8.1.1</t>
+          <t>Listing 16.2.8.1.2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Laboratory Results: Chemistry - bb2121-treated Population</t>
+          <t>ber</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Adverse Events of Special Interest</t>
+          <t>Adverse Events leading to Stud Drug Discontinutaion Death</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Listing 16.2.8.1.2</t>
+          <t>DSMB Graph #</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>DSMB Graph Title</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Adverse Events leading to Stud Drug Discontinutaion Death</t>
+          <t>Serum Inflammation (CRP and Ferritin)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DSMB Graph #</t>
+          <t>Figure 14.3.1.1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ber</t>
+          <t>Time to Neutropenia Recovery from Infusion for Subjects Iwith Last Lab within Month 1 of bb2121 Infusion Date Indicating Grade 3/4 Neutropenia - bb2121-Treated Population</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Serum Inflammation (CRP and Ferritin)</t>
+          <t>Cytokine Profile (if available)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Figure 14.3.1.1</t>
+          <t>Figure 14.3.1.2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DSMB Graph Title</t>
+          <t>Time to Thrombocytopenia Recovery from Infusion for Subjects with Last Lab within Month 1 of bb2121 Infusion Date Indicating Grade 3/4 Thrombocytopenia - bb2121- Treated Population</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cytokine Profile (if available)</t>
+          <t>Blood VCN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Figure 14.3.1.2</t>
+          <t>BB Table Number</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Time to Neutropenia Recovery from Infusion for Subjects with Last Lab within Month 1 of bb2121 Infusion Date Indicating Grade 3/4 Neutropenia - bb2121-Treated Population</t>
+          <t>MM-001 Outputs in the BB</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Blood VCN</t>
+          <t>bb2121 Drug Exposure and Comparator Drug Exposure (if appliTLGs listed in DSMB Charter Appedix B Efficacy Tables</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BB Table Number</t>
+          <t>Table 14.2.1.2.1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Time to Thrombocytopenia Recovery from Infusion for Subjects with Last Lab within Month 1 of bb2121 Infusion Date Indicating Grade 3/4 Thrombocytopenia - bb2121- Treated Population</t>
+          <t>BB Table Title</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bb2121 Drug Exposure and Comparator Drug Exposure (if appliTLGs listed in DSMB Charter Appedix B Efficacy Tables</t>
+          <t>Overall response rate (ORR)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Table 14.2.1.2.1</t>
+          <t>Table 14.2.2.2.1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MM-001 Outputs in the BB</t>
+          <t>Summary of Best Overall Response based on IMWG Criteria Investigator Assessment - bb2121-treated Population</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Overall response rate (ORR)</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Table 14.2.2.2.1</t>
-        </is>
-      </c>
+          <t>Minimal residual response (MRD)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BB Table Title</t>
+          <t>Time to Response and Duration of Response for Subjects with at Least Partial Response - Using IMWG Criteria - Investigator Assessment - bb2121-treated Population, FDA 12. Censoring Rules, Responders only</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Minimal residual response (MRD)</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Summary of Best Overall Response based on IMWG Criteria - Investigator Assessment-bb2121-treated Population</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Time to Response and Duration of Response for Subjects with at Least Partial Response - Using IMWG Criteria - Investigator Assessment - bb2121-treated Population, FDA Censoring Rules, Responders only</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
